--- a/week-2/Exercises/2-4-B-modeling-scenarios-exercises.xlsx
+++ b/week-2/Exercises/2-4-B-modeling-scenarios-exercises.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FDBEC7-E2B5-4B78-9862-9C44482A05AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B1815-2488-43BD-ACAA-E876A96370C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="data-table" sheetId="1" r:id="rId1"/>
+    <sheet name="staffing-model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -520,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -591,10 +589,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f>B8</f>
-        <v>-0.6800000000000006</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>5</v>
       </c>
@@ -615,102 +610,51 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
-        <f t="dataTable" ref="B13:F17" dt2D="1" dtr="1" r1="B1" r2="B4"/>
-        <v>-0.6800000000000006</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4.3199999999999994</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9.32</v>
-      </c>
-      <c r="E13" s="3">
-        <v>14.32</v>
-      </c>
-      <c r="F13" s="3">
-        <v>19.32</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="3">
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.3200000000000003</v>
-      </c>
-      <c r="D14" s="3">
-        <v>6.32</v>
-      </c>
-      <c r="E14" s="3">
-        <v>11.32</v>
-      </c>
-      <c r="F14" s="3">
-        <v>16.32</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>-6.68</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-1.6799999999999997</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8.32</v>
-      </c>
-      <c r="F15" s="3">
-        <v>13.32</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
-        <v>-9.68</v>
-      </c>
-      <c r="C16" s="3">
-        <v>-4.68</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.32000000000000028</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5.32</v>
-      </c>
-      <c r="F16" s="3">
-        <v>10.32</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>-12.680000000000003</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-7.6800000000000033</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-2.6800000000000033</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.3199999999999967</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7.3199999999999967</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,7 +667,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="7">
-        <f>D3</f>
+        <f t="shared" ref="B3:B8" si="0">D3</f>
         <v>10000</v>
       </c>
       <c r="C3" s="7">
@@ -779,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="11">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="C4" s="10">
@@ -797,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
       <c r="C5" s="5">
@@ -815,7 +759,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="8">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="C6" s="8">
@@ -833,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C7" s="5">
@@ -851,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="5">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="C8" s="5">
